--- a/correlation_methods.xlsx
+++ b/correlation_methods.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomaskuttyreji/Documents/excel_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas/Documents/GitHub/Notes-Repository/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74392ED6-F502-0F46-BD4E-576F78C1039D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FECCB1-2830-DE4A-BCDB-338B5145B49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{031F3973-2A13-8541-B9C4-DDEBF4F4DB59}"/>
   </bookViews>
@@ -342,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -353,6 +353,66 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -380,6 +440,42 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -397,112 +493,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,8 +521,8 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7962900" cy="1016000"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -1075,7 +1065,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -1149,8 +1139,8 @@
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7899400" cy="1028700"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -1381,7 +1371,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -1455,8 +1445,8 @@
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7899400" cy="1028700"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -1607,7 +1597,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -1681,8 +1671,8 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4965700" cy="1016000"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -1968,7 +1958,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -2042,8 +2032,8 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4927600" cy="1016000"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -2287,7 +2277,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -2675,8 +2665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350FE1AD-7226-2C41-BDC4-32E68F5BC532}">
   <dimension ref="B1:Z59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K63" sqref="K63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2688,147 +2678,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="6"/>
-      <c r="O1" s="4" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="26"/>
+      <c r="O1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="6"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="26"/>
     </row>
     <row r="2" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="9"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="9"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="29"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="29"/>
     </row>
     <row r="3" spans="2:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="12"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="12"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="32"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="32"/>
     </row>
     <row r="4" spans="2:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="2:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
     </row>
     <row r="9" spans="2:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="44" t="s">
+      <c r="F9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="44" t="s">
+      <c r="G9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="44" t="s">
+      <c r="H9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="15"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="47"/>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
@@ -2838,11 +2828,11 @@
         <v>14</v>
       </c>
       <c r="D10" s="3">
-        <f>B10-C$19</f>
+        <f t="shared" ref="D10:E17" si="0">B10-C$19</f>
         <v>-6.875</v>
       </c>
       <c r="E10" s="2">
-        <f>C10-D$19</f>
+        <f t="shared" si="0"/>
         <v>-26.5</v>
       </c>
       <c r="F10" s="3">
@@ -2857,26 +2847,26 @@
         <f>E10^2</f>
         <v>702.25</v>
       </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="15"/>
-      <c r="O10" s="46" t="s">
+      <c r="I10" s="45"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="47"/>
+      <c r="O10" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="46" t="s">
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="V10" s="47"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="47"/>
-      <c r="Y10" s="47"/>
-      <c r="Z10" s="48"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="35"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
@@ -2886,41 +2876,41 @@
         <v>25</v>
       </c>
       <c r="D11" s="3">
-        <f>B11-C$19</f>
+        <f t="shared" si="0"/>
         <v>-3.875</v>
       </c>
       <c r="E11" s="2">
-        <f>C11-D$19</f>
+        <f t="shared" si="0"/>
         <v>-15.5</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" ref="F11:F17" si="0">D11*E11</f>
+        <f t="shared" ref="F11:F17" si="1">D11*E11</f>
         <v>60.0625</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" ref="G11:G17" si="1">D11^2</f>
+        <f t="shared" ref="G11:G17" si="2">D11^2</f>
         <v>15.015625</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" ref="H11:H17" si="2">E11^2</f>
+        <f t="shared" ref="H11:H17" si="3">E11^2</f>
         <v>240.25</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="15"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="49"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="50"/>
-      <c r="Y11" s="50"/>
-      <c r="Z11" s="51"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="47"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="38"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
@@ -2930,41 +2920,41 @@
         <v>20</v>
       </c>
       <c r="D12" s="3">
-        <f>B12-C$19</f>
+        <f t="shared" si="0"/>
         <v>-1.875</v>
       </c>
       <c r="E12" s="2">
-        <f>C12-D$19</f>
+        <f t="shared" si="0"/>
         <v>-20.5</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38.4375</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.515625</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>420.25</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="15"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="50"/>
-      <c r="W12" s="50"/>
-      <c r="X12" s="50"/>
-      <c r="Y12" s="50"/>
-      <c r="Z12" s="51"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="47"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="38"/>
     </row>
     <row r="13" spans="2:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
@@ -2974,41 +2964,41 @@
         <v>35</v>
       </c>
       <c r="D13" s="3">
-        <f>B13-C$19</f>
+        <f t="shared" si="0"/>
         <v>-0.875</v>
       </c>
       <c r="E13" s="2">
-        <f>C13-D$19</f>
+        <f t="shared" si="0"/>
         <v>-5.5</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.8125</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.765625</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30.25</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="18"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="49"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="50"/>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="50"/>
-      <c r="Z13" s="51"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="50"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="38"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="38"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
@@ -3018,37 +3008,37 @@
         <v>45</v>
       </c>
       <c r="D14" s="3">
-        <f>B14-C$19</f>
+        <f t="shared" si="0"/>
         <v>1.125</v>
       </c>
       <c r="E14" s="2">
-        <f>C14-D$19</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.0625</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.265625</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20.25</v>
       </c>
-      <c r="O14" s="49"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="50"/>
-      <c r="W14" s="50"/>
-      <c r="X14" s="50"/>
-      <c r="Y14" s="50"/>
-      <c r="Z14" s="51"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="38"/>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
@@ -3058,37 +3048,37 @@
         <v>30</v>
       </c>
       <c r="D15" s="3">
-        <f>B15-C$19</f>
+        <f t="shared" si="0"/>
         <v>2.125</v>
       </c>
       <c r="E15" s="2">
-        <f>C15-D$19</f>
+        <f t="shared" si="0"/>
         <v>-10.5</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-22.3125</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.515625</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>110.25</v>
       </c>
-      <c r="O15" s="49"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="49"/>
-      <c r="V15" s="50"/>
-      <c r="W15" s="50"/>
-      <c r="X15" s="50"/>
-      <c r="Y15" s="50"/>
-      <c r="Z15" s="51"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="38"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
@@ -3098,37 +3088,37 @@
         <v>60</v>
       </c>
       <c r="D16" s="3">
-        <f>B16-C$19</f>
+        <f t="shared" si="0"/>
         <v>3.125</v>
       </c>
       <c r="E16" s="2">
-        <f>C16-D$19</f>
+        <f t="shared" si="0"/>
         <v>19.5</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>60.9375</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.765625</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>380.25</v>
       </c>
-      <c r="O16" s="49"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="51"/>
-      <c r="U16" s="49"/>
-      <c r="V16" s="50"/>
-      <c r="W16" s="50"/>
-      <c r="X16" s="50"/>
-      <c r="Y16" s="50"/>
-      <c r="Z16" s="51"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="38"/>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
@@ -3138,37 +3128,37 @@
         <v>95</v>
       </c>
       <c r="D17" s="3">
-        <f>B17-C$19</f>
+        <f t="shared" si="0"/>
         <v>7.125</v>
       </c>
       <c r="E17" s="2">
-        <f>C17-D$19</f>
+        <f t="shared" si="0"/>
         <v>54.5</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>388.3125</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50.765625</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2970.25</v>
       </c>
-      <c r="O17" s="49"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="51"/>
-      <c r="U17" s="49"/>
-      <c r="V17" s="50"/>
-      <c r="W17" s="50"/>
-      <c r="X17" s="50"/>
-      <c r="Y17" s="50"/>
-      <c r="Z17" s="51"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="38"/>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
@@ -3179,28 +3169,28 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="50"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="49"/>
-      <c r="V18" s="50"/>
-      <c r="W18" s="50"/>
-      <c r="X18" s="50"/>
-      <c r="Y18" s="50"/>
-      <c r="Z18" s="51"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="38"/>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="5">
         <f>AVERAGE(B10:B17)</f>
         <v>18.875</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="5">
         <f>AVERAGE(C10:C17)</f>
         <v>40.5</v>
       </c>
@@ -3217,18 +3207,18 @@
         <f>SUM(H10:H17)</f>
         <v>4874</v>
       </c>
-      <c r="O19" s="49"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="50"/>
-      <c r="S19" s="50"/>
-      <c r="T19" s="51"/>
-      <c r="U19" s="49"/>
-      <c r="V19" s="50"/>
-      <c r="W19" s="50"/>
-      <c r="X19" s="50"/>
-      <c r="Y19" s="50"/>
-      <c r="Z19" s="51"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="38"/>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
@@ -3241,18 +3231,18 @@
         <v>804.75632958057554</v>
       </c>
       <c r="H20" s="2"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="49"/>
-      <c r="V20" s="50"/>
-      <c r="W20" s="50"/>
-      <c r="X20" s="50"/>
-      <c r="Y20" s="50"/>
-      <c r="Z20" s="51"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="38"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
@@ -3268,18 +3258,18 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="51"/>
-      <c r="U21" s="49"/>
-      <c r="V21" s="50"/>
-      <c r="W21" s="50"/>
-      <c r="X21" s="50"/>
-      <c r="Y21" s="50"/>
-      <c r="Z21" s="51"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="38"/>
     </row>
     <row r="22" spans="2:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
@@ -3290,18 +3280,18 @@
         <v>0.8915742239317932</v>
       </c>
       <c r="I22" s="1"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="53"/>
-      <c r="T22" s="54"/>
-      <c r="U22" s="52"/>
-      <c r="V22" s="53"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="53"/>
-      <c r="Y22" s="53"/>
-      <c r="Z22" s="54"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="41"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
@@ -3317,69 +3307,69 @@
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="2:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="2:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="2:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="2:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="44" t="s">
+      <c r="C30" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="44" t="s">
+      <c r="D30" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="45" t="s">
+      <c r="E30" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="44" t="s">
+      <c r="F30" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="29" t="s">
+      <c r="G30" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="31"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="17"/>
     </row>
     <row r="31" spans="2:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
@@ -3391,17 +3381,17 @@
       <c r="D31" s="2">
         <v>1</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="4">
         <v>1</v>
       </c>
       <c r="F31" s="2">
         <f>(D31-E31)^2</f>
         <v>0</v>
       </c>
-      <c r="G31" s="32"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="34"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="23"/>
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.2">
@@ -3414,15 +3404,15 @@
       <c r="D32" s="2">
         <v>2</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="4">
         <v>3</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" ref="F32:F38" si="3">(D32-E32)^2</f>
+        <f t="shared" ref="F32:F38" si="4">(D32-E32)^2</f>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="2">
         <v>17</v>
       </c>
@@ -3432,25 +3422,24 @@
       <c r="D33" s="2">
         <v>3</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="4">
         <v>2</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G33" s="28" t="s">
+      <c r="G33" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H33" s="28">
+      <c r="H33" s="6">
         <f>1-((6*8)/(8*(8^2-1)))</f>
         <v>0.90476190476190477</v>
       </c>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="L33" s="21"/>
-    </row>
-    <row r="34" spans="2:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="2">
         <v>18</v>
       </c>
@@ -3460,25 +3449,23 @@
       <c r="D34" s="2">
         <v>4</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="4">
         <v>5</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G34" s="28" t="s">
+      <c r="G34" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H34" s="28">
+      <c r="H34" s="6">
         <f>PEARSON(D31:D38,E31:E38)</f>
         <v>0.90476190476190477</v>
       </c>
-      <c r="I34" s="24"/>
-      <c r="J34" s="21"/>
-      <c r="L34" s="21"/>
-    </row>
-    <row r="35" spans="2:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="2:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2">
         <v>20</v>
       </c>
@@ -3488,17 +3475,16 @@
       <c r="D35" s="2">
         <v>5</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="4">
         <v>6</v>
       </c>
       <c r="F35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I35" s="20"/>
-      <c r="J35" s="21"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
         <v>21</v>
       </c>
@@ -3508,18 +3494,17 @@
       <c r="D36" s="2">
         <v>6</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="4">
         <v>4</v>
       </c>
       <c r="F36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="H36" s="24"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="21"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="2">
         <v>22</v>
       </c>
@@ -3529,17 +3514,16 @@
       <c r="D37" s="2">
         <v>7</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E37" s="4">
         <v>7</v>
       </c>
       <c r="F37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H37" s="24"/>
-      <c r="J37" s="21"/>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" s="2">
         <v>26</v>
       </c>
@@ -3549,24 +3533,23 @@
       <c r="D38" s="2">
         <v>8</v>
       </c>
-      <c r="E38" s="19">
+      <c r="E38" s="4">
         <v>8</v>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="21"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="F39" s="25">
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F39" s="2">
         <f>SUM(F31:F38)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -3574,223 +3557,223 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B42" s="23" t="s">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B42" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B48" s="43" t="s">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B48" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="43" t="s">
+      <c r="C48" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="40" t="s">
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I48" s="40">
+      <c r="I48" s="9">
         <v>11</v>
       </c>
-      <c r="J48" s="40"/>
+      <c r="J48" s="9"/>
     </row>
     <row r="49" spans="2:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="40">
+      <c r="B49" s="9">
         <v>1</v>
       </c>
-      <c r="C49" s="40">
+      <c r="C49" s="9">
         <v>3</v>
       </c>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="H49" s="40" t="s">
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="H49" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I49" s="40">
+      <c r="I49" s="9">
         <v>4</v>
       </c>
-      <c r="J49" s="40">
+      <c r="J49" s="9">
         <f>(11-4)/(11+4)</f>
         <v>0.46666666666666667</v>
       </c>
-      <c r="N49" s="35"/>
-      <c r="O49" s="35"/>
-      <c r="P49" s="35"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B50" s="40">
+      <c r="B50" s="9">
         <v>2</v>
       </c>
-      <c r="C50" s="40">
+      <c r="C50" s="9">
         <v>1</v>
       </c>
-      <c r="D50" s="42" t="s">
+      <c r="D50" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E50" s="39"/>
-      <c r="N50" s="35"/>
-      <c r="O50" s="35"/>
-      <c r="P50" s="35"/>
+      <c r="E50" s="8"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B51" s="40">
+      <c r="B51" s="9">
         <v>3</v>
       </c>
-      <c r="C51" s="40">
+      <c r="C51" s="9">
         <v>4</v>
       </c>
-      <c r="D51" s="41" t="s">
+      <c r="D51" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="41" t="s">
+      <c r="E51" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="N51" s="35"/>
-      <c r="O51" s="35"/>
-      <c r="P51" s="35"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B52" s="40">
+      <c r="B52" s="9">
         <v>4</v>
       </c>
-      <c r="C52" s="40">
+      <c r="C52" s="9">
         <v>2</v>
       </c>
-      <c r="D52" s="42" t="s">
+      <c r="D52" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E52" s="41" t="s">
+      <c r="E52" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F52" s="42" t="s">
+      <c r="F52" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B53" s="40">
+      <c r="B53" s="9">
         <v>5</v>
       </c>
-      <c r="C53" s="40">
+      <c r="C53" s="9">
         <v>6</v>
       </c>
-      <c r="D53" s="41" t="s">
+      <c r="D53" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E53" s="41" t="s">
+      <c r="E53" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F53" s="41" t="s">
+      <c r="F53" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G53" s="41" t="s">
+      <c r="G53" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H53" s="39"/>
+      <c r="H53" s="8"/>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B54" s="40">
+      <c r="B54" s="9">
         <v>6</v>
       </c>
-      <c r="C54" s="40">
+      <c r="C54" s="9">
         <v>5</v>
       </c>
-      <c r="D54" s="41" t="s">
+      <c r="D54" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E54" s="41" t="s">
+      <c r="E54" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F54" s="41" t="s">
+      <c r="F54" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G54" s="41" t="s">
+      <c r="G54" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H54" s="42" t="s">
+      <c r="H54" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="55" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B56" s="29" t="s">
+      <c r="B56" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="31"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="17"/>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B57" s="36"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="38"/>
-      <c r="I57" s="24"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="20"/>
+      <c r="I57" s="1"/>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B58" s="36"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="38"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="20"/>
     </row>
     <row r="59" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="32"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="34"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="10">
